--- a/BOM_tab.xlsx
+++ b/BOM_tab.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jansu\Documents\GitHub\tech-starter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2374F6EE-214A-464B-805F-C44E97847910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5A9736-748D-467C-8883-6E0562AC17F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +428,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,13 +742,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="22" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="100" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="120.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,722 +785,722 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="2">
         <v>6</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="3">
         <v>12</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="2">
         <v>8</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="5" t="s">
         <v>112</v>
       </c>
     </row>
